--- a/biology/Zoologie/Bulbul_goiavier/Bulbul_goiavier.xlsx
+++ b/biology/Zoologie/Bulbul_goiavier/Bulbul_goiavier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pycnonotus goiavier
 Le Bulbul goiavier (Pycnonotus goiavier) est une espèce de passereaux de la famille des Pycnonotidae, aussi appelés bulbuls. 
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il réside en Thaïlande, au Cambodge, sur l'île de Bornéo et aux Philippines.
 </t>
@@ -543,10 +557,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans une grande variété d'habitats ouverts mais pas dans la forêt profonde. Il semble être nomade, errant régulièrement vers d'autres lieux.
-On le trouve souvent dans les jardins, en particulier en Thaïlande[1].
+On le trouve souvent dans les jardins, en particulier en Thaïlande.
 </t>
         </is>
       </c>
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,7 +619,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bulbul goiavier construit un nid bien camouflé en forme de coupe, mais fragile. Il est constitué d'herbes, de feuilles, de racines, de tiges de vigne et de brindilles. Le nid paraît désordonné à l'extérieur, mais il est soigneusement renforcé avec des fibres végétales. Il peut être construit dans des endroits très divers, du petit buisson au grand arbre. Cette espèce est adaptée à l'homme, et peut même nidifier dans les jardins. Il pond 2 à 5 œufs de février à juin.
 Il se nourrit de graines et petits fruits. Il sirote également le nectar ou grignote les petites pousses végétales ou capture certains insectes.
